--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail10 Features.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,29 +735,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -778,115 +776,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -903,72 +891,66 @@
         <v>9.480628349807603e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.388407533786056</v>
+        <v>5.246226411174968e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.900698982965091</v>
+        <v>9.008808920603633e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.246226411174968e-06</v>
+        <v>0.08989273529874175</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.008808920603633e-06</v>
+        <v>0.2161780595088367</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08989273529874175</v>
+        <v>0.05474172308686755</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2161780595088367</v>
+        <v>1.515677365845664</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05474172308686755</v>
+        <v>1.639713292100241</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.423354899242532</v>
+        <v>3.707216020445777</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.639713292100241</v>
+        <v>8.553811395341574e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.707216020445777</v>
+        <v>8843027.429049846</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.553811395341574e-14</v>
+        <v>1.187178065036453e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>8843027.429049846</v>
+        <v>6.689006444638994</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.187178065036453e-05</v>
+        <v>0.0001145259642352204</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.689006444638994</v>
+        <v>9.256768124113776</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001145259642352204</v>
+        <v>1.294357786895321</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.256768124113776</v>
+        <v>0.009813472890918202</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.294357786895321</v>
+        <v>3.096361530850029</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009813472890918202</v>
+        <v>0.9440133340251496</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.096361530850029</v>
+        <v>1.879502443076114</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9440133340251496</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.879502443076114</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2167074730153014</v>
       </c>
     </row>
@@ -983,72 +965,66 @@
         <v>8.279907299407954e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8898388754200879</v>
+        <v>4.316168926914616e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.9723508956614024</v>
+        <v>9.085591807202456e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.316168926914616e-06</v>
+        <v>0.0830783854714503</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.085591807202456e-06</v>
+        <v>0.2096227122395668</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0830783854714503</v>
+        <v>0.05077329429944118</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2096227122395668</v>
+        <v>1.522896578472597</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05077329429944118</v>
+        <v>1.572171318806707</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.430358223755668</v>
+        <v>3.721201062577705</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.572171318806707</v>
+        <v>8.489638230688093e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.721201062577705</v>
+        <v>8991680.85953673</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.489638230688093e-14</v>
+        <v>1.174026767044272e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8991680.85953673</v>
+        <v>6.863900073648286</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.174026767044272e-05</v>
+        <v>0.0001135961638554514</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.863900073648286</v>
+        <v>8.629966353260048</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001135961638554514</v>
+        <v>1.323572106168979</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.629966353260048</v>
+        <v>0.008460224165828175</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.323572106168979</v>
+        <v>3.188698570819389</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008460224165828175</v>
+        <v>0.9460938126551892</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.188698570819389</v>
+        <v>1.854924062666974</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9460938126551892</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.854924062666974</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2169052262895487</v>
       </c>
     </row>
@@ -1063,72 +1039,66 @@
         <v>7.45983415926732e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4889814175762999</v>
+        <v>3.4984128781266e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5442421311802361</v>
+        <v>9.146837021304515e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.4984128781266e-06</v>
+        <v>0.072438428055355</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.146837021304515e-06</v>
+        <v>0.1935378683466259</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.072438428055355</v>
+        <v>0.04263503267288626</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1935378683466259</v>
+        <v>1.513187024526315</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04263503267288626</v>
+        <v>1.556185289197936</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.420164331938559</v>
+        <v>3.863261617796534</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.556185289197936</v>
+        <v>7.876752836318905e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.863261617796534</v>
+        <v>9888804.500634117</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.876752836318905e-14</v>
+        <v>1.067756338015295e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>9888804.500634117</v>
+        <v>7.702554859621551</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.067756338015295e-05</v>
+        <v>9.758193834079638e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.702554859621551</v>
+        <v>6.620152490673937</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.758193834079638e-05</v>
+        <v>1.629107992166128</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.620152490673937</v>
+        <v>0.004276666916534081</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.629107992166128</v>
+        <v>3.471656708145802</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004276666916534081</v>
+        <v>0.9472594460629286</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.471656708145802</v>
+        <v>1.836239435697131</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9472594460629286</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.836239435697131</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2339712018217755</v>
       </c>
     </row>
@@ -1143,72 +1113,66 @@
         <v>6.96309399211339e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2870007137723933</v>
+        <v>2.786415078119537e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.288067958119768</v>
+        <v>9.194202955644799e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.786415078119537e-06</v>
+        <v>0.05909872295240709</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>9.194202955644799e-06</v>
+        <v>0.1677897749253266</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05909872295240709</v>
+        <v>0.03159055454726421</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1677897749253266</v>
+        <v>1.512078702386648</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03159055454726421</v>
+        <v>1.502550549145866</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.422068993676852</v>
+        <v>4.083569072187364</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.502550549145866</v>
+        <v>7.049781305641549e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.083569072187364</v>
+        <v>11056749.98544466</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.049781305641549e-14</v>
+        <v>9.557927354115191e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>11056749.98544466</v>
+        <v>8.618478919349181</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.557927354115191e-06</v>
+        <v>8.510513969368973e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.618478919349181</v>
+        <v>5.649450247673276</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.510513969368973e-05</v>
+        <v>2.721719168085149</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>5.649450247673276</v>
+        <v>0.002716240157334174</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.721719168085149</v>
+        <v>3.684500519193604</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002716240157334174</v>
+        <v>0.948029897339786</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.684500519193604</v>
+        <v>1.869013105930858</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.948029897339786</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.869013105930858</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2959080459906248</v>
       </c>
     </row>
@@ -1223,72 +1187,66 @@
         <v>6.699152975221163e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.25616524785308</v>
+        <v>2.228977506966201e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.468693067201658</v>
+        <v>9.230017555979932e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.228977506966201e-06</v>
+        <v>0.04638785030777233</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>9.230017555979932e-06</v>
+        <v>0.1430049810626068</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04638785030777233</v>
+        <v>0.02257076944941901</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1430049810626068</v>
+        <v>1.516513234312956</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02257076944941901</v>
+        <v>1.45879868211993</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.42802767624087</v>
+        <v>4.757262335207521</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.45879868211993</v>
+        <v>5.183904960687086e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.757262335207521</v>
+        <v>15043196.91893684</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.183904960687086e-14</v>
+        <v>7.018106501942856e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>15043196.91893684</v>
+        <v>11.73106150856354</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.018106501942856e-06</v>
+        <v>0.0001021976535652277</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>11.73106150856354</v>
+        <v>7.046278958787508</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001021976535652277</v>
+        <v>1.764842191631727</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.046278958787508</v>
+        <v>0.005074118319671155</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.764842191631727</v>
+        <v>3.380250002218669</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005074118319671155</v>
+        <v>0.9492348827458231</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.380250002218669</v>
+        <v>1.88381432238153</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9492348827458231</v>
+        <v>18</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.88381432238153</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3708105592031325</v>
       </c>
     </row>
@@ -1303,72 +1261,66 @@
         <v>6.568468203815365e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3033008422230836</v>
+        <v>1.942805764971809e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.445880637886669</v>
+        <v>9.257361835329292e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.942805764971809e-06</v>
+        <v>0.03672905207341167</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>9.257361835329292e-06</v>
+        <v>0.1280099368968632</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03672905207341167</v>
+        <v>0.01772115531632838</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1280099368968632</v>
+        <v>1.566391081818069</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01772115531632838</v>
+        <v>1.673031016882544</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.479841663442723</v>
+        <v>3.613157104157116</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.673031016882544</v>
+        <v>4.231334808448548e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.613157104157116</v>
+        <v>18514980.64993492</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.231334808448548e-14</v>
+        <v>5.84641313199506e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>18514980.64993492</v>
+        <v>14.50520649171477</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.84641313199506e-06</v>
+        <v>9.924323545205501e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.50520649171477</v>
+        <v>6.998555698102533</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.924323545205501e-05</v>
+        <v>1.717691385067281</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.998555698102533</v>
+        <v>0.004860912023467038</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.717691385067281</v>
+        <v>3.352956551666352</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004860912023467038</v>
+        <v>0.9527795939961982</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.352956551666352</v>
+        <v>1.829500606248103</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9527795939961982</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.829500606248103</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.384167464309618</v>
       </c>
     </row>
@@ -1383,72 +1335,66 @@
         <v>6.504117784077358e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.370505115414819</v>
+        <v>1.942805764971809e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.38282607907531</v>
+        <v>9.279017422136896e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.942805764971809e-06</v>
+        <v>0.03000451772353972</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.279017422136896e-06</v>
+        <v>0.1206030304295742</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03000451772353972</v>
+        <v>0.01543832293117728</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1206030304295742</v>
+        <v>1.606384237642538</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01543832293117728</v>
+        <v>1.618967662550005</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.515876651106566</v>
+        <v>3.596691966879999</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.618967662550005</v>
+        <v>4.270164364947824e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.596691966879999</v>
+        <v>17767135.54617563</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.270164364947824e-14</v>
+        <v>6.2056987894015e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>17767135.54617563</v>
+        <v>13.47967505818866</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.2056987894015e-06</v>
+        <v>8.235184576892927e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>13.47967505818866</v>
+        <v>7.003991169949391</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.235184576892927e-05</v>
+        <v>1.888472271921911</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.003991169949391</v>
+        <v>0.004039843277465657</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.888472271921911</v>
+        <v>3.556895122842113</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004039843277465657</v>
+        <v>0.9572411785380809</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.556895122842113</v>
+        <v>1.824084294595911</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9572411785380809</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.824084294595911</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3602153744728758</v>
       </c>
     </row>
@@ -1463,72 +1409,66 @@
         <v>6.473847058400451e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4374515796575706</v>
+        <v>1.942805764971809e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.321224479430137</v>
+        <v>9.296929616770276e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.942805764971809e-06</v>
+        <v>0.02571107238787304</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>9.296929616770276e-06</v>
+        <v>0.1170617482072817</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02571107238787304</v>
+        <v>0.01436216256830554</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1170617482072817</v>
+        <v>1.614281423165857</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01436216256830554</v>
+        <v>1.573316578215133</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.520299198900808</v>
+        <v>3.913900210839529</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.573316578215133</v>
+        <v>3.620068241276833e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.913900210839529</v>
+        <v>20837868.71473238</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.620068241276833e-14</v>
+        <v>5.288566617724208e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>20837868.71473238</v>
+        <v>15.71894348219152</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.288566617724208e-06</v>
+        <v>8.1708216232395e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>15.71894348219152</v>
+        <v>8.769383100140875</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.1708216232395e-05</v>
+        <v>1.634251483515523</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.769383100140875</v>
+        <v>0.006283531777850458</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.634251483515523</v>
+        <v>3.480901576075044</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006283531777850458</v>
+        <v>0.9556847556207853</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.480901576075044</v>
+        <v>1.824792191416827</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9556847556207853</v>
+        <v>17</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.824792191416827</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3372781600994444</v>
       </c>
     </row>
@@ -1905,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.626395973224183</v>
+        <v>1.624462160811518</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.989674091786507</v>
@@ -1994,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.641728469120156</v>
+        <v>1.64319915953328</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.054986357946102</v>
@@ -2083,7 +2023,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.636004667109378</v>
+        <v>1.643991745547969</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.174415177006571</v>
@@ -2172,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.640475509748438</v>
+        <v>1.651602649678392</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.170602607987254</v>
@@ -2261,7 +2201,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.642939286329088</v>
+        <v>1.659646044829146</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.002119083421161</v>
@@ -2350,7 +2290,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659753059616154</v>
+        <v>1.67844313542042</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.275271055458671</v>
@@ -2439,7 +2379,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660703421025118</v>
+        <v>1.686247414191789</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.100980933603114</v>
@@ -2528,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.665394502370988</v>
+        <v>1.693812227674438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.049687163800716</v>
@@ -2617,7 +2557,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.669692731997098</v>
+        <v>1.698345139674255</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.056740596153944</v>
@@ -2706,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666285728013734</v>
+        <v>1.690419658353882</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.458402019304395</v>
@@ -2795,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665711583827135</v>
+        <v>1.688229653916784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.3782295610387</v>
@@ -2884,7 +2824,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.688490304116734</v>
+        <v>1.709386094732747</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.166362530056799</v>
@@ -2973,7 +2913,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.692981227464734</v>
+        <v>1.709762723088878</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.007421597659671</v>
@@ -3062,7 +3002,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.697415710082453</v>
+        <v>1.713352599580025</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.419861191398381</v>
@@ -3151,7 +3091,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.706703954914972</v>
+        <v>1.720663050838877</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.860844274757382</v>
@@ -3240,7 +3180,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.717036731588432</v>
+        <v>1.727667422141466</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.56124159057279</v>
@@ -3329,7 +3269,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.712274528802795</v>
+        <v>1.718264973491204</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.094434227695667</v>
@@ -3418,7 +3358,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.714649152305432</v>
+        <v>1.720481679838249</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.460208000698646</v>
@@ -3507,7 +3447,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711620747891633</v>
+        <v>1.720479547058931</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.358080491766968</v>
@@ -3596,7 +3536,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.720832761981582</v>
+        <v>1.728842922438349</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.162898961103327</v>
@@ -3685,7 +3625,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705584632553105</v>
+        <v>1.713027936731733</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.062062341971443</v>
@@ -3774,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.67426592624355</v>
+        <v>1.680130853348671</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.973898686763839</v>
@@ -3863,7 +3803,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.646947547476204</v>
+        <v>1.655097954439565</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.944702199920006</v>
@@ -3952,7 +3892,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.62704176845478</v>
+        <v>1.631944264047952</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.70645187748954</v>
@@ -4041,7 +3981,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.606878371292299</v>
+        <v>1.617066513683032</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.783633993000068</v>
@@ -4130,7 +4070,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595185985995502</v>
+        <v>1.606941020352388</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.814563658257236</v>
@@ -4219,7 +4159,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589495539974517</v>
+        <v>1.599234723846484</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.655509170384752</v>
@@ -4308,7 +4248,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.591328777739937</v>
+        <v>1.600613548835062</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.666886488908336</v>
@@ -4397,7 +4337,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590445555208499</v>
+        <v>1.601709674877116</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.7255739781653</v>
@@ -4486,7 +4426,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.59891923112576</v>
+        <v>1.611988426473295</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.85814202375335</v>
@@ -4575,7 +4515,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.573873507489417</v>
+        <v>1.586963625888203</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.642936539602867</v>
@@ -4664,7 +4604,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.567659653179117</v>
+        <v>1.577320914184027</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.621722382447302</v>
@@ -4753,7 +4693,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560898310115841</v>
+        <v>1.571157054510461</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.817646418871405</v>
@@ -4842,7 +4782,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.542624399162334</v>
+        <v>1.549575875064164</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.902102986419174</v>
@@ -4931,7 +4871,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.525006625461324</v>
+        <v>1.530014076936459</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.810345677665898</v>
@@ -5020,7 +4960,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.50955953447126</v>
+        <v>1.514622011868585</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.494967160494358</v>
@@ -5109,7 +5049,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52930478152534</v>
+        <v>1.529873076110365</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.095568014095101</v>
@@ -5198,7 +5138,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538835437495172</v>
+        <v>1.539841269209677</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.097727249082333</v>
@@ -5287,7 +5227,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.539344706870402</v>
+        <v>1.53730701646059</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.118370281493795</v>
@@ -5376,7 +5316,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.55055151032442</v>
+        <v>1.545108941216654</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.687372021663482</v>
@@ -5465,7 +5405,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.541278320474345</v>
+        <v>1.533593392234646</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.210305329403798</v>
@@ -5554,7 +5494,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.530346445563195</v>
+        <v>1.526798076564443</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.184099321820579</v>
@@ -5643,7 +5583,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.530369846560983</v>
+        <v>1.527564120621088</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.153971483573113</v>
@@ -5732,7 +5672,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528724761908523</v>
+        <v>1.523852431787633</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.921821875201675</v>
@@ -5821,7 +5761,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.520606414659302</v>
+        <v>1.513036971166046</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.028969192647011</v>
@@ -5910,7 +5850,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.541157607476461</v>
+        <v>1.530376713953517</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.234285265579574</v>
@@ -5999,7 +5939,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.552593419686208</v>
+        <v>1.541810963546196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.044707641055535</v>
@@ -6088,7 +6028,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577154517192354</v>
+        <v>1.561956586688567</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.004048337524664</v>
@@ -6177,7 +6117,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.599414194596051</v>
+        <v>1.581029169740709</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.047718856323195</v>
@@ -6266,7 +6206,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.615403134608341</v>
+        <v>1.595543618459652</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.845346906967445</v>
@@ -6355,7 +6295,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.641480555806256</v>
+        <v>1.614357411956423</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.769279430001669</v>
@@ -6444,7 +6384,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.638309969718713</v>
+        <v>1.615278550790283</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.441950087645459</v>
@@ -6533,7 +6473,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.641843169832771</v>
+        <v>1.614449351419365</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.191242497286212</v>
@@ -6819,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.567168817632829</v>
+        <v>1.545051705615535</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.649596741338857</v>
@@ -6908,7 +6848,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.576292087421903</v>
+        <v>1.557822809572517</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.644308035081544</v>
@@ -6997,7 +6937,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.598964684811867</v>
+        <v>1.575641038819759</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.911417025759209</v>
@@ -7086,7 +7026,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.598361861972558</v>
+        <v>1.573912896507089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.186473410159951</v>
@@ -7175,7 +7115,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607875687385958</v>
+        <v>1.579577830705447</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.192665340097919</v>
@@ -7264,7 +7204,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.593505959741349</v>
+        <v>1.5591218392926</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.979340949447642</v>
@@ -7353,7 +7293,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.607382382243722</v>
+        <v>1.582643361040271</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.038629696156939</v>
@@ -7442,7 +7382,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608516191795877</v>
+        <v>1.578820465381059</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.163655800429714</v>
@@ -7531,7 +7471,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.605311093442509</v>
+        <v>1.578922294574748</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.988932262450666</v>
@@ -7620,7 +7560,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.592948535891101</v>
+        <v>1.566161888530766</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.132946693519072</v>
@@ -7709,7 +7649,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.601629058608429</v>
+        <v>1.573871148039935</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.008837508203753</v>
@@ -7798,7 +7738,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598078366033439</v>
+        <v>1.571607574354211</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.980911733451821</v>
@@ -7887,7 +7827,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605931559940991</v>
+        <v>1.58177729529161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.912395533352909</v>
@@ -7976,7 +7916,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615056712622848</v>
+        <v>1.588732696391646</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.594546844656872</v>
@@ -8065,7 +8005,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.62477809998424</v>
+        <v>1.597734148379849</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.027707205649825</v>
@@ -8154,7 +8094,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625365093682157</v>
+        <v>1.595406239680735</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.1452505618158</v>
@@ -8243,7 +8183,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.622133444471658</v>
+        <v>1.588136826786674</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.089492464402712</v>
@@ -8332,7 +8272,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.634615226523529</v>
+        <v>1.596018352765484</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.693864404029026</v>
@@ -8421,7 +8361,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.622567506660339</v>
+        <v>1.598319771824382</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.752356883023209</v>
@@ -8510,7 +8450,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.635560669302873</v>
+        <v>1.610964443580635</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.790096360653893</v>
@@ -8599,7 +8539,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.636552343615969</v>
+        <v>1.616047479033214</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.81058136445961</v>
@@ -8688,7 +8628,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.626571110913273</v>
+        <v>1.606828459926139</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.877539432389861</v>
@@ -8777,7 +8717,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.620159495901361</v>
+        <v>1.606093792753832</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.730020679987319</v>
@@ -8866,7 +8806,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.60897165458041</v>
+        <v>1.587751799343337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.929898604215102</v>
@@ -8955,7 +8895,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595224610667375</v>
+        <v>1.577045365895839</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.696166026385389</v>
@@ -9044,7 +8984,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572192329635849</v>
+        <v>1.551989914809797</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.748971700517473</v>
@@ -9133,7 +9073,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.562958134471126</v>
+        <v>1.540698099508869</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.030582376637359</v>
@@ -9222,7 +9162,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54994974034342</v>
+        <v>1.529868202465068</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.014846796184053</v>
@@ -9311,7 +9251,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54478380055917</v>
+        <v>1.524502590609308</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.914141525822895</v>
@@ -9400,7 +9340,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.553539565291771</v>
+        <v>1.53380254459489</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.954789308740686</v>
@@ -9489,7 +9429,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.530513056704009</v>
+        <v>1.511030913971717</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.759266370782063</v>
@@ -9578,7 +9518,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528317662292335</v>
+        <v>1.508287015538074</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.91034061831465</v>
@@ -9667,7 +9607,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.50829361006305</v>
+        <v>1.488745433670616</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.515524204990982</v>
@@ -9756,7 +9696,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509094992514154</v>
+        <v>1.488026572241685</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.609886273737836</v>
@@ -9845,7 +9785,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.485181045666044</v>
+        <v>1.45897780460002</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.740251864047753</v>
@@ -9934,7 +9874,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.462516829326722</v>
+        <v>1.439380035870538</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.554390307234617</v>
@@ -10023,7 +9963,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456532509443736</v>
+        <v>1.432318612691444</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.542731913370166</v>
@@ -10112,7 +10052,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.461195434824067</v>
+        <v>1.432278440847895</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.699980588125473</v>
@@ -10201,7 +10141,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.457542449097866</v>
+        <v>1.43810298938825</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.529953225505513</v>
@@ -10290,7 +10230,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.473753860507328</v>
+        <v>1.453611334767222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.350960437645047</v>
@@ -10379,7 +10319,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.47095994718114</v>
+        <v>1.453528701929301</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.718320804612993</v>
@@ -10468,7 +10408,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.483981844112329</v>
+        <v>1.47044238929323</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.715890010610057</v>
@@ -10557,7 +10497,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.489563167759737</v>
+        <v>1.473942692068296</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.717154858091787</v>
@@ -10646,7 +10586,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.48788818688425</v>
+        <v>1.473865098687208</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.424942085193067</v>
@@ -10735,7 +10675,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.490747001178864</v>
+        <v>1.479516210113308</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.554393083466363</v>
@@ -10824,7 +10764,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.503001933662759</v>
+        <v>1.491605264585278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.576500626720808</v>
@@ -10913,7 +10853,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.496491520245508</v>
+        <v>1.485927081939334</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.558739972177202</v>
@@ -11002,7 +10942,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52675576904033</v>
+        <v>1.51418486087319</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.511425948811376</v>
@@ -11091,7 +11031,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.532736306989384</v>
+        <v>1.511266628064471</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.779586491206268</v>
@@ -11180,7 +11120,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.549219363841275</v>
+        <v>1.531837596110512</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.367082627863364</v>
@@ -11269,7 +11209,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.576874205883363</v>
+        <v>1.552118310285712</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.029894592329754</v>
@@ -11358,7 +11298,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.583881439083965</v>
+        <v>1.557717043066065</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.976892085448534</v>
@@ -11447,7 +11387,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.587328744139499</v>
+        <v>1.562156667801756</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.776928968567561</v>
@@ -11733,7 +11673,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.662184295244624</v>
+        <v>1.539035860905852</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.894665066401527</v>
@@ -11822,7 +11762,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.660604570585224</v>
+        <v>1.546573100989913</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.432535456740803</v>
@@ -11911,7 +11851,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.658098480081821</v>
+        <v>1.544671981545894</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.428551236221019</v>
@@ -12000,7 +11940,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669580357395381</v>
+        <v>1.555920735328274</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.019412093287777</v>
@@ -12089,7 +12029,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.657435474459158</v>
+        <v>1.547210502049567</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.974679616934268</v>
@@ -12178,7 +12118,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.653285014635861</v>
+        <v>1.54492501115719</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.307259978357777</v>
@@ -12267,7 +12207,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.653811656099516</v>
+        <v>1.552988542738511</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.553000716029313</v>
@@ -12356,7 +12296,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638919937646552</v>
+        <v>1.539759317096505</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.962773468430159</v>
@@ -12445,7 +12385,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.636476313260331</v>
+        <v>1.546158037669055</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.905225773458022</v>
@@ -12534,7 +12474,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.63190873170722</v>
+        <v>1.539714512124823</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.496638724905401</v>
@@ -12623,7 +12563,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636568310325513</v>
+        <v>1.541679860419712</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.407329036482551</v>
@@ -12712,7 +12652,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.618080635995493</v>
+        <v>1.525787719309452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.47834355541121</v>
@@ -12801,7 +12741,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.612388088100853</v>
+        <v>1.52325029642752</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.380276540238289</v>
@@ -12890,7 +12830,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607992484993228</v>
+        <v>1.513304740763781</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.409928075950588</v>
@@ -12979,7 +12919,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600756932492593</v>
+        <v>1.509621146187915</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.101073533469354</v>
@@ -13068,7 +13008,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611157581208025</v>
+        <v>1.519836885112193</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.407654909668838</v>
@@ -13157,7 +13097,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.597268255166688</v>
+        <v>1.501349886369413</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.189914330698733</v>
@@ -13246,7 +13186,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.600813742866928</v>
+        <v>1.498752945901508</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.097008628558192</v>
@@ -13335,7 +13275,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597319847311281</v>
+        <v>1.502114824608598</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.618322520624203</v>
@@ -13424,7 +13364,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596191458213243</v>
+        <v>1.497681122171681</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.125843327402389</v>
@@ -13513,7 +13453,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.601929393364385</v>
+        <v>1.497418134566344</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.744990007685658</v>
@@ -13602,7 +13542,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.596307942792271</v>
+        <v>1.491426600337407</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.5198002764813</v>
@@ -13691,7 +13631,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.582500171601517</v>
+        <v>1.486327147424419</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.454561265866411</v>
@@ -13780,7 +13720,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.573957439606708</v>
+        <v>1.470492961330335</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.324882738426024</v>
@@ -13869,7 +13809,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.57479130485268</v>
+        <v>1.471551919866172</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.426448464951692</v>
@@ -13958,7 +13898,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570089951439433</v>
+        <v>1.467854013628683</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.139875619464486</v>
@@ -14047,7 +13987,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.573647323176715</v>
+        <v>1.463667331478151</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.273867842967797</v>
@@ -14136,7 +14076,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.573118304601193</v>
+        <v>1.465453805763234</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.492565100893337</v>
@@ -14225,7 +14165,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563204213206642</v>
+        <v>1.464857154312587</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.453735578154334</v>
@@ -14314,7 +14254,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565379755323951</v>
+        <v>1.46425584387012</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.557568202460242</v>
@@ -14403,7 +14343,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554151273183497</v>
+        <v>1.449108716480056</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.522815225260574</v>
@@ -14492,7 +14432,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.558868395948962</v>
+        <v>1.454394258588316</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.545946455415788</v>
@@ -14581,7 +14521,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56544571608684</v>
+        <v>1.460573271708432</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.24572383790174</v>
@@ -14670,7 +14610,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.553890860004089</v>
+        <v>1.450521752354289</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.106466654217558</v>
@@ -14759,7 +14699,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.560506267206563</v>
+        <v>1.455539996175388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.516034944578819</v>
@@ -14848,7 +14788,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.546207110191931</v>
+        <v>1.446934313490345</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.102787182190243</v>
@@ -14937,7 +14877,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.547155645351181</v>
+        <v>1.45275792015913</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.222767346943319</v>
@@ -15026,7 +14966,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.54752747054592</v>
+        <v>1.448707913091726</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.136758079735166</v>
@@ -15115,7 +15055,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.547584958944985</v>
+        <v>1.452600760093713</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.34976749448171</v>
@@ -15204,7 +15144,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.536800448170024</v>
+        <v>1.442319265118666</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.4672822958421</v>
@@ -15293,7 +15233,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.536280290755312</v>
+        <v>1.442821081316265</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.552976082038573</v>
@@ -15382,7 +15322,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.531835028160742</v>
+        <v>1.44579319440731</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.400652329721013</v>
@@ -15471,7 +15411,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.544057679080669</v>
+        <v>1.454821535997642</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.904889638281486</v>
@@ -15560,7 +15500,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.556946745553663</v>
+        <v>1.463345838979018</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.899775878533108</v>
@@ -15649,7 +15589,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.572264230155852</v>
+        <v>1.482773269809591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.753654250599738</v>
@@ -15738,7 +15678,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.577671335375251</v>
+        <v>1.482206859283114</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.326640449097304</v>
@@ -15827,7 +15767,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.574151869379746</v>
+        <v>1.481793367035689</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.819075254049855</v>
@@ -15916,7 +15856,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576568699006762</v>
+        <v>1.470981086012603</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.298332309909568</v>
@@ -16005,7 +15945,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.584594519771431</v>
+        <v>1.475600688055523</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.746466939357438</v>
@@ -16094,7 +16034,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581232588654376</v>
+        <v>1.471941365496763</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.851386413643023</v>
@@ -16183,7 +16123,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.582855068661577</v>
+        <v>1.47032608636481</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.89895903896218</v>
@@ -16272,7 +16212,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.587827564375283</v>
+        <v>1.471447207561599</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.896444262724155</v>
@@ -16361,7 +16301,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.585398406114406</v>
+        <v>1.465420672541514</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.150720229604048</v>
@@ -16647,7 +16587,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.781084989555588</v>
+        <v>1.749686607089476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.087577540556967</v>
@@ -16736,7 +16676,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.799012545927507</v>
+        <v>1.777506618437039</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.775398148307402</v>
@@ -16825,7 +16765,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.803451775110638</v>
+        <v>1.784956600709662</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.142581662448818</v>
@@ -16914,7 +16854,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.802571541587659</v>
+        <v>1.784536421965064</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.967962507186142</v>
@@ -17003,7 +16943,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.804550365229117</v>
+        <v>1.788517130237542</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.870169812380554</v>
@@ -17092,7 +17032,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.815552980993601</v>
+        <v>1.796335177774406</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.25999542581267</v>
@@ -17181,7 +17121,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.814617499465956</v>
+        <v>1.79858374507934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.540861296509205</v>
@@ -17270,7 +17210,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.816303423362228</v>
+        <v>1.803705039346596</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.216246506167134</v>
@@ -17359,7 +17299,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.819812836723733</v>
+        <v>1.810320843158919</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.007128307240094</v>
@@ -17448,7 +17388,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.816081347771365</v>
+        <v>1.803476950314254</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.220028267778416</v>
@@ -17537,7 +17477,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.821678309235915</v>
+        <v>1.807701842274859</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.444692304197366</v>
@@ -17626,7 +17566,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.820724109001</v>
+        <v>1.808034396161724</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.024085679756781</v>
@@ -17715,7 +17655,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.825387039107434</v>
+        <v>1.811982358783042</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.946923397486435</v>
@@ -17804,7 +17744,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.819668964096763</v>
+        <v>1.807205485512526</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.200440729918913</v>
@@ -17893,7 +17833,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.826266412172698</v>
+        <v>1.813658413776123</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.578229369516123</v>
@@ -17982,7 +17922,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.815435536806732</v>
+        <v>1.804996641212624</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.778304347439902</v>
@@ -18071,7 +18011,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.807050402542497</v>
+        <v>1.795515375227065</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.689514782246807</v>
@@ -18160,7 +18100,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.81254012543266</v>
+        <v>1.793506857738123</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.808131447915043</v>
@@ -18249,7 +18189,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.788872890648137</v>
+        <v>1.779820053375258</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.386917696278648</v>
@@ -18338,7 +18278,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.798631043836191</v>
+        <v>1.784048181696891</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.577194645389408</v>
@@ -18427,7 +18367,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.79962779146704</v>
+        <v>1.780619506082195</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.150503561793656</v>
@@ -18516,7 +18456,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.788754946298515</v>
+        <v>1.765179174481858</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.934561619267152</v>
@@ -18605,7 +18545,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.781535309780746</v>
+        <v>1.752752016589336</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.411815358646886</v>
@@ -18694,7 +18634,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76053535506857</v>
+        <v>1.730379318874581</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.276977703377325</v>
@@ -18783,7 +18723,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.759807991769986</v>
+        <v>1.730112692207221</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.251764972291867</v>
@@ -18872,7 +18812,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.742143386974788</v>
+        <v>1.711259102352052</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.200785567882471</v>
@@ -18961,7 +18901,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737212324808546</v>
+        <v>1.70045644519931</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.181016592500258</v>
@@ -19050,7 +18990,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.739412485771679</v>
+        <v>1.702382678189878</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.513306200097039</v>
@@ -19139,7 +19079,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.737865813346507</v>
+        <v>1.700189256390118</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.038172205602107</v>
@@ -19228,7 +19168,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.727491656759402</v>
+        <v>1.68647303873751</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.418864009072863</v>
@@ -19317,7 +19257,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.733074666299953</v>
+        <v>1.687871746703707</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.197354106003701</v>
@@ -19406,7 +19346,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.729133844271261</v>
+        <v>1.682552534919779</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.361581730208993</v>
@@ -19495,7 +19435,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.725294768938628</v>
+        <v>1.678498741915201</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.877443035035852</v>
@@ -19584,7 +19524,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.733022509980436</v>
+        <v>1.684731205476055</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.441484067195996</v>
@@ -19673,7 +19613,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.717677747236604</v>
+        <v>1.668183739079495</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.709184245658881</v>
@@ -19762,7 +19702,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.704461201090748</v>
+        <v>1.658963956596673</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.615878184760625</v>
@@ -19851,7 +19791,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.71176802515256</v>
+        <v>1.665003120744454</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.312466371233175</v>
@@ -19940,7 +19880,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.715102074566978</v>
+        <v>1.671382467389682</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.205445101225049</v>
@@ -20029,7 +19969,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.726438176357211</v>
+        <v>1.684500470288315</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.693481710930808</v>
@@ -20118,7 +20058,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731199191113442</v>
+        <v>1.692984529798806</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.402339912132216</v>
@@ -20207,7 +20147,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.737570689956019</v>
+        <v>1.701290412401321</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.135202361521781</v>
@@ -20296,7 +20236,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.737053928990385</v>
+        <v>1.70611850222598</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.982399259939454</v>
@@ -20385,7 +20325,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.729059264912224</v>
+        <v>1.693182687868993</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.949021144643226</v>
@@ -20474,7 +20414,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728344637453442</v>
+        <v>1.692284293243919</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.354877196198034</v>
@@ -20563,7 +20503,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732201156871515</v>
+        <v>1.699481930998897</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.370512842043641</v>
@@ -20652,7 +20592,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.729793010174692</v>
+        <v>1.695555945747269</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.433641899525947</v>
@@ -20741,7 +20681,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.728086788705695</v>
+        <v>1.697802432803798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.013139861228037</v>
@@ -20830,7 +20770,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.733420649275795</v>
+        <v>1.70343085309065</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.377891815467317</v>
@@ -20919,7 +20859,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.749486275708626</v>
+        <v>1.710812105598017</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.34711152892973</v>
@@ -21008,7 +20948,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.764856237718818</v>
+        <v>1.731506723781584</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.382792104217115</v>
@@ -21097,7 +21037,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.768120469258952</v>
+        <v>1.730556218003846</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.584774061805862</v>
@@ -21186,7 +21126,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.754378850469061</v>
+        <v>1.720138407285987</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.881678008388837</v>
@@ -21275,7 +21215,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.747915226546949</v>
+        <v>1.714690595087353</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.948743230897732</v>
@@ -21561,7 +21501,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.577718485188405</v>
+        <v>1.551877584222364</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.797347381931285</v>
@@ -21650,7 +21590,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.591031564887173</v>
+        <v>1.563696446621138</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.846086601211314</v>
@@ -21739,7 +21679,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.611449625432965</v>
+        <v>1.57975723190875</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.480633537324282</v>
@@ -21828,7 +21768,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621043377254266</v>
+        <v>1.584371046353286</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.910992341613383</v>
@@ -21917,7 +21857,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.620764727376595</v>
+        <v>1.588028275862466</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.126758945801097</v>
@@ -22006,7 +21946,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616200124891378</v>
+        <v>1.580270217078136</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.083133547721549</v>
@@ -22095,7 +22035,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626775550661021</v>
+        <v>1.586313594667993</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.350833124647259</v>
@@ -22184,7 +22124,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.616232896104168</v>
+        <v>1.578477166903745</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.062163280238678</v>
@@ -22273,7 +22213,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.605783641907828</v>
+        <v>1.570141457632077</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.079431189009017</v>
@@ -22362,7 +22302,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.604031559677369</v>
+        <v>1.565041572099736</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.354269963636486</v>
@@ -22451,7 +22391,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.602973760752812</v>
+        <v>1.565920630956659</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.853154158767152</v>
@@ -22540,7 +22480,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587075847580036</v>
+        <v>1.560387198573254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.745511391184705</v>
@@ -22629,7 +22569,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597801562643169</v>
+        <v>1.577804433654548</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.110526866620486</v>
@@ -22718,7 +22658,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588507951164122</v>
+        <v>1.571439922050694</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.851925685223714</v>
@@ -22807,7 +22747,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600653070169863</v>
+        <v>1.583637006479263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.792826976871869</v>
@@ -22896,7 +22836,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.598408347118402</v>
+        <v>1.579190478609086</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.147347565700371</v>
@@ -22985,7 +22925,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593972966940042</v>
+        <v>1.572336890352644</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.103922911919426</v>
@@ -23074,7 +23014,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598150786577338</v>
+        <v>1.571723931191342</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.752679520800615</v>
@@ -23163,7 +23103,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584553720566078</v>
+        <v>1.565326675668833</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.848507669340031</v>
@@ -23252,7 +23192,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58654027544091</v>
+        <v>1.569728264102063</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.013288681901246</v>
@@ -23341,7 +23281,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.591755404424816</v>
+        <v>1.57363408119863</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.672459855813604</v>
@@ -23430,7 +23370,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578283216291066</v>
+        <v>1.56333486732146</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.732588373668413</v>
@@ -23519,7 +23459,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.58165092651727</v>
+        <v>1.566409468256846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.903243068999313</v>
@@ -23608,7 +23548,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564006216641882</v>
+        <v>1.547929220096589</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.912988321768534</v>
@@ -23697,7 +23637,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553303356876233</v>
+        <v>1.534208556805525</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.975088166883717</v>
@@ -23786,7 +23726,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53577848963755</v>
+        <v>1.513295420313538</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.634691365317369</v>
@@ -23875,7 +23815,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539235462355698</v>
+        <v>1.509689847914257</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.715119055669608</v>
@@ -23964,7 +23904,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.534290997917971</v>
+        <v>1.508226473371732</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.737814580868274</v>
@@ -24053,7 +23993,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.536129859849442</v>
+        <v>1.511774059840058</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.840552636988467</v>
@@ -24142,7 +24082,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.534574450495362</v>
+        <v>1.506284445156316</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.656328848947555</v>
@@ -24231,7 +24171,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.524321618686084</v>
+        <v>1.496082614601368</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.618879880929152</v>
@@ -24320,7 +24260,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.523296047715927</v>
+        <v>1.49593811903623</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.696531001049904</v>
@@ -24409,7 +24349,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.51606600600648</v>
+        <v>1.488455572248196</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.462114065856975</v>
@@ -24498,7 +24438,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.528510466928786</v>
+        <v>1.501080512635544</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.560962205075047</v>
@@ -24587,7 +24527,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503153815716159</v>
+        <v>1.477739750367256</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.74016040982441</v>
@@ -24676,7 +24616,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480504960934266</v>
+        <v>1.457507079191146</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.676229611823396</v>
@@ -24765,7 +24705,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.487689467398168</v>
+        <v>1.468144464514208</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.680152631522887</v>
@@ -24854,7 +24794,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486605342128127</v>
+        <v>1.465695865935578</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.798086368467638</v>
@@ -24943,7 +24883,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.508683640795744</v>
+        <v>1.48282077466353</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.689351107231969</v>
@@ -25032,7 +24972,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.517575334665882</v>
+        <v>1.49383556609606</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.38210333317925</v>
@@ -25121,7 +25061,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.517270895614735</v>
+        <v>1.495219136375461</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.772912500621507</v>
@@ -25210,7 +25150,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.518267471848729</v>
+        <v>1.497245812747841</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.576466816397247</v>
@@ -25299,7 +25239,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.52109415292666</v>
+        <v>1.493986071204194</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.719582464904445</v>
@@ -25388,7 +25328,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.520826952314231</v>
+        <v>1.495104735178226</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.803943583115202</v>
@@ -25477,7 +25417,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.526616802156875</v>
+        <v>1.505598676423217</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.765544831672266</v>
@@ -25566,7 +25506,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.533368395140188</v>
+        <v>1.50893191922337</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.778855091449774</v>
@@ -25655,7 +25595,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.530580488488047</v>
+        <v>1.508936778644808</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.80556288116048</v>
@@ -25744,7 +25684,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.551492768258179</v>
+        <v>1.525842085478234</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.768134634631319</v>
@@ -25833,7 +25773,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.562619133634005</v>
+        <v>1.526234215995205</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.674231124958824</v>
@@ -25922,7 +25862,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.591310155258677</v>
+        <v>1.551955491408228</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.453331147821134</v>
@@ -26011,7 +25951,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.607502481065993</v>
+        <v>1.566097536498637</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.844516955311965</v>
@@ -26100,7 +26040,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615725326658423</v>
+        <v>1.573084276593069</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.18110129196313</v>
@@ -26189,7 +26129,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.617714265439416</v>
+        <v>1.577398888939811</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.270839002780185</v>
@@ -26475,7 +26415,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.599716671267415</v>
+        <v>1.632107623386707</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.287649320901324</v>
@@ -26564,7 +26504,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.632548283064414</v>
+        <v>1.663925748961412</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.973196133004133</v>
@@ -26653,7 +26593,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641287218667139</v>
+        <v>1.676230250699669</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.051470883435761</v>
@@ -26742,7 +26682,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656729567393706</v>
+        <v>1.685809606836869</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.537117984269093</v>
@@ -26831,7 +26771,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.644932525720296</v>
+        <v>1.684681168650939</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.067968772382923</v>
@@ -26920,7 +26860,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.672089549780839</v>
+        <v>1.710000706888221</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.394764392237193</v>
@@ -27009,7 +26949,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669156022712044</v>
+        <v>1.709941732602253</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.367649740208987</v>
@@ -27098,7 +27038,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.675839758014277</v>
+        <v>1.71755745452045</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.734790630066795</v>
@@ -27187,7 +27127,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.676921197586775</v>
+        <v>1.718277848265358</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.673439830569161</v>
@@ -27276,7 +27216,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.662563959180525</v>
+        <v>1.701914460402553</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.144450904552542</v>
@@ -27365,7 +27305,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.666604345839429</v>
+        <v>1.708104767250295</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.194800890518813</v>
@@ -27454,7 +27394,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.677254816440556</v>
+        <v>1.718479518088076</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.868940187147615</v>
@@ -27543,7 +27483,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.712149726252017</v>
+        <v>1.749555635903467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.920748012765247</v>
@@ -27632,7 +27572,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.701759288957645</v>
+        <v>1.737111361700645</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.059206535070266</v>
@@ -27721,7 +27661,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.730516092574006</v>
+        <v>1.76868753540637</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.809099815072764</v>
@@ -27810,7 +27750,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.7345687921019</v>
+        <v>1.771037482375457</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.011745209236657</v>
@@ -27899,7 +27839,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.745548917841693</v>
+        <v>1.781297402263734</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.761855885224467</v>
@@ -27988,7 +27928,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.764057308944305</v>
+        <v>1.79490738135781</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.929907502160106</v>
@@ -28077,7 +28017,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.781005507215358</v>
+        <v>1.813574577525995</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.166925729426949</v>
@@ -28166,7 +28106,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.79681522504167</v>
+        <v>1.825882138481623</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.004307868136139</v>
@@ -28255,7 +28195,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.77762111085503</v>
+        <v>1.811256480739791</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.842717284758554</v>
@@ -28344,7 +28284,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.746018774716539</v>
+        <v>1.773695001442253</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.032653505814892</v>
@@ -28433,7 +28373,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.692973804819466</v>
+        <v>1.723663708695125</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.898922559942631</v>
@@ -28522,7 +28462,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652098815377435</v>
+        <v>1.675612515016194</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.872044629884642</v>
@@ -28611,7 +28551,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627452648949818</v>
+        <v>1.654765191730034</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.902981947603724</v>
@@ -28700,7 +28640,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59726812808167</v>
+        <v>1.623406997452898</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.824029836771228</v>
@@ -28789,7 +28729,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.588220309117753</v>
+        <v>1.610992976786461</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.031217820275923</v>
@@ -28878,7 +28818,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.587661928528351</v>
+        <v>1.610691237358342</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.968360786541962</v>
@@ -28967,7 +28907,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.605661109536318</v>
+        <v>1.628657663482223</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.685586644942413</v>
@@ -29056,7 +28996,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.60287057380058</v>
+        <v>1.624471861022996</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.711897945535165</v>
@@ -29145,7 +29085,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584314076206157</v>
+        <v>1.607773548521986</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.870827189274963</v>
@@ -29234,7 +29174,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.580286701124258</v>
+        <v>1.603976544090721</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.691256367839023</v>
@@ -29323,7 +29263,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.578551717380696</v>
+        <v>1.601122457164051</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.615312766609191</v>
@@ -29412,7 +29352,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575247188338369</v>
+        <v>1.596067975005118</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.840385949619022</v>
@@ -29501,7 +29441,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.549449699319407</v>
+        <v>1.569451444859575</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.854702233325285</v>
@@ -29590,7 +29530,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.544655833842879</v>
+        <v>1.562873952346839</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.079820188392818</v>
@@ -29679,7 +29619,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.570152430477739</v>
+        <v>1.592226424415848</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.562569007209991</v>
@@ -29768,7 +29708,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610935216169779</v>
+        <v>1.63251250081612</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.659365624777371</v>
@@ -29857,7 +29797,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651048471778572</v>
+        <v>1.673940899302136</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.530340573826354</v>
@@ -29946,7 +29886,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.690269288310538</v>
+        <v>1.707023680359667</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.122963430515313</v>
@@ -30035,7 +29975,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.712476769324742</v>
+        <v>1.725815557438518</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.617262839136416</v>
@@ -30124,7 +30064,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.71751723671307</v>
+        <v>1.734170295538268</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.855197748269844</v>
@@ -30213,7 +30153,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715287876529343</v>
+        <v>1.731591443756838</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.833711897932558</v>
@@ -30302,7 +30242,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.715493676214367</v>
+        <v>1.727747433944202</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.689615169998852</v>
@@ -30391,7 +30331,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.72371876924507</v>
+        <v>1.734339267187038</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.525614709234656</v>
@@ -30480,7 +30420,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.739874581435954</v>
+        <v>1.736452139732457</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.729729870733652</v>
@@ -30569,7 +30509,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.733292852957308</v>
+        <v>1.72794432872222</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.750057523260091</v>
@@ -30658,7 +30598,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.747782065499394</v>
+        <v>1.737264463357151</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.619828198626611</v>
@@ -30747,7 +30687,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.766039293967193</v>
+        <v>1.740397631881029</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.483353930655794</v>
@@ -30836,7 +30776,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.799344707644393</v>
+        <v>1.769160489571002</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.436550318002726</v>
@@ -30925,7 +30865,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.829250553928008</v>
+        <v>1.791279149984178</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.910098230587249</v>
@@ -31014,7 +30954,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.831473746066661</v>
+        <v>1.794320331236024</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.193145417658004</v>
@@ -31103,7 +31043,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.831592617961216</v>
+        <v>1.793285916241206</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.151912578542521</v>
